--- a/F20/STAT411/STATS2.xlsx
+++ b/F20/STAT411/STATS2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SchoolProjects\F20\STAT411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D382A27F-C51B-4A46-A41F-343476677539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217680F-2452-49B5-A0EE-7C0D351DACE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4EC0C87A-3BA9-CB42-B201-6373C20BB259}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4EC0C87A-3BA9-CB42-B201-6373C20BB259}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -62,19 +62,48 @@
   </si>
   <si>
     <t>CHANGE THIS SHIT OR DIE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>VARIANCE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>the ev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="STIXMathJax_Main"/>
     </font>
   </fonts>
   <fills count="3">
@@ -103,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,13 +504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81555491-036F-834C-9A38-92A723D37647}">
   <dimension ref="B4:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -512,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -521,11 +551,11 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:K5" si="0">1/9</f>
+        <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E5:L5" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="F5">
@@ -553,7 +583,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="C7">
         <f>C4*C5</f>
         <v>0</v>
@@ -607,13 +637,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
       <c r="C9">
         <f>SUM(C7:O7)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="C11">
         <f>C4*C4*C5</f>
         <v>0</v>
@@ -667,13 +700,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="C13">
         <f>SUM(C11:O11)</f>
         <v>22.666666666666664</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
       <c r="C15">
         <f>C13-(C9*C9)</f>
         <v>6.6666666666666643</v>
@@ -681,6 +717,9 @@
       <c r="E15">
         <f>SQRT(C15)</f>
         <v>2.5819888974716108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -691,20 +730,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD5DBC7-A9C6-D146-BC47-1E1B174FFD01}">
-  <dimension ref="B3:G12"/>
+  <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C10:C12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -712,52 +754,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C5">
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="E5">
         <f>B5*C5</f>
-        <v>3800</v>
+        <v>20400</v>
       </c>
       <c r="G5">
         <f>SUM(E5:E7)</f>
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>46400</v>
+      </c>
+      <c r="I5">
+        <f>B5*B5*C5</f>
+        <v>612000000</v>
+      </c>
+      <c r="K5">
+        <f>SUM(I5:I7)</f>
+        <v>2798000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="C6">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E7" si="0">B6*C6</f>
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4400</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I12" si="1">B6*B6*C6</f>
+        <v>242000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="C7">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>21600</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1944000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -765,44 +823,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10">
-        <v>40000</v>
+        <v>-25000</v>
       </c>
       <c r="C10">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="E10">
         <f>B10*C10</f>
-        <v>17200</v>
+        <v>-4500</v>
       </c>
       <c r="G10">
         <f>SUM(E10:E12)</f>
-        <v>51400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>37300.000000000007</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>112500000</v>
+      </c>
+      <c r="K10">
+        <f>SUM(I10:I12)</f>
+        <v>2385500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="C11">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E12" si="1">B11*C11</f>
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E11:E12" si="2">B11*C11</f>
+        <v>30600.000000000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1377000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>80000</v>
       </c>
       <c r="C12">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>15200</v>
+        <f t="shared" si="2"/>
+        <v>11200.000000000002</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>896000000.00000012</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <f>K5-(G5*G5)</f>
+        <v>645040000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <f>K10-(G10*G10)</f>
+        <v>994209999.99999952</v>
       </c>
     </row>
   </sheetData>
@@ -812,20 +909,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74F816C-7975-4240-A277-BFCD6879D892}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3">
         <f>13/52</f>
         <v>0.25</v>
@@ -835,71 +932,114 @@
         <v>0.71755725190839692</v>
       </c>
       <c r="F3">
-        <f>D3^2</f>
-        <v>0.51488840976633055</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <f>12/51</f>
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="47.25">
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7">
         <f>F3</f>
-        <v>0.51488840976633055</v>
+        <v>0.375</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <f>D7*B7</f>
-        <v>3.0893304585979831</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="G8">
         <f>E7-E9</f>
-        <v>-0.79156226327137258</v>
+        <v>2.75</v>
       </c>
       <c r="I8">
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="B9">
         <f>1-B7</f>
-        <v>0.48511159023366945</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <f>D9*B9</f>
-        <v>3.8808927218693556</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="H10">
         <f>I8*G8</f>
-        <v>-557.25983334304624</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15">
         <f>3/8</f>
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="16.5">
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2035.53</v>
+      </c>
+      <c r="F21">
+        <f>D21*C21</f>
+        <v>61065.9</v>
+      </c>
+      <c r="G21">
+        <f>SUM(F21:F23)/SUM(C21:C23)</f>
+        <v>2077.4515384615383</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5">
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2529.39</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F23" si="0">D22*C22</f>
+        <v>78411.09</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="16.5">
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1652.37</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>49571.1</v>
       </c>
     </row>
   </sheetData>
